--- a/ValueSet-lmdi-medicationadministrationstatus.xlsx
+++ b/ValueSet-lmdi-medicationadministrationstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
